--- a/results/qa_full-v3_cs-1500_fused_hybe.xlsx
+++ b/results/qa_full-v3_cs-1500_fused_hybe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,13 +483,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Huawei's revenue for 2021 was CNY 636,807 million and for 2022 was CNY 642,338 million.</t>
+          <t>Huawei's revenue in CNY for the year 2021 was 636,807 million and for 2022 was 642,338 million.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer's revenue figures for both 2021 and 2022 do not match the ground truth data. The ground truth states Huawei's revenue was 642,338 million CNY in 2021 and 704,174 million CNY in 2022, whereas the predicted answer provides different figures for both years.",
+"reason": "The predicted answer's revenue figures for both years 2021 and 2022 do not match the ground truth data. The ground truth states Huawei's revenue was 642,338 million CNY in 2021 and 704,174 million CNY in 2022, whereas the predicted answer incorrectly states the revenue as 636,807 million CNY for 2021 and 642,338 million CNY for 2022.",
 "answer": False
 }</t>
         </is>
@@ -516,16 +516,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Over the past three years by the end of 2023, Huawei invested the following percentages of its annual sales revenue into R&amp;D:
-- 2021: 22.4%
-- 2022: 25.1%
-- 2023: 23.4%</t>
+          <t>Over the past three years by the end of 2023, Huawei invested the following percentages of its annual sales revenue in R&amp;D:
+- 22.4% in 2021
+- 25.1% in 2022
+- 23.4% in 2023</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer provides specific percentages of Huawei's R&amp;D investment relative to its annual sales revenue for each of the past three years, all of which are more than 20%. This directly supports the ground truth claim that Huawei invested more than 20% of its annual sales revenue in R&amp;D over the past three years by the end of 2023.", 
+"reason": "The predicted answer provides specific percentages of Huawei's annual sales revenue invested in R&amp;D for each of the past three years, which all exceed 20%. This aligns with the ground truth statement that Huawei invested more than 20% of its annual sales revenue in R&amp;D over the past three years by the end of 2023.", 
 "answer": True
 }</t>
         </is>
@@ -558,7 +558,7 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth answer exactly, stating that HarmonyOS had been deployed on more than 800 million devices by the end of 2023.",
+"reason": "The predicted answer matches the ground truth answer, stating that HarmonyOS had been deployed on more than 800 million devices by the end of 2023.",
 "answer": True
 }</t>
         </is>
@@ -570,25 +570,256 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>What was the total number of 5G users globally serviced by Huawei by the end of 2023?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>More than 1.5 billion users</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>By the end of 2023, the total number of 5G users globally serviced by Huawei had exceeded 1.5 billion.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information, stating that the total number of 5G users globally serviced by Huawei had exceeded 1.5 billion by the end of 2023.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>How many people has Huawei's Seeds for the Future program benefited as of 2023?</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>More than 3.4 million people</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>As of 2023, Huawei's Seeds for the Future program has benefited over 3.4 million people.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, stating that Huawei's Seeds for the Future program has benefited over 3.4 million people as of 2023.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>What was Huawei's net profit in CNY for the years 2021 and 2022?</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>113,718 million CNY in 2021 and 35,562 million CNY in 2022</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Huawei's net profit for 2021 was CNY113,718 million and for 2022 was CNY35,562 million.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth data exactly, providing the correct net profit figures for Huawei in CNY for both 2021 and 2022.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>What operating margin percentage did Huawei achieve in 2023?</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14.8%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Huawei achieved an operating margin of 14.8% in 2023.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that the information provided is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>How many developers had joined HarmonyOS, Kunpeng, Ascend, and Huawei Cloud ecosystems by the end of 2023?</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>More than 9.5 million developers</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>By the end of 2023, more than 9.5 million developers had joined the HarmonyOS, Kunpeng, Ascend, and Huawei Cloud ecosystems.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information, stating the same number of developers (more than 9.5 million) had joined the specified ecosystems by the end of 2023.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>By 2022, how many countries and regions was Huawei providing its stable, reliable, secure, trustworthy, and sustainable cloud services to?</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>More than 170 countries and regions</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>By 2022, Huawei was providing its cloud services to more than 170 countries and regions.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, stating that Huawei was providing its cloud services to more than 170 countries and regions by 2022.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>What was Huawei's total liability ratio in 2022 and 2023?</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>58.9% in 2022 and 59.8% in 2023</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>The total liability ratio for Huawei in 2022 was not explicitly provided, but in 2023, it also wasn't directly stated in the provided information.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer indicates that the specific information requested (Huawei's total liability ratio for 2022 and 2023) was not provided, which aligns with the instruction for cases where the answer cannot be found. Therefore, the response is treated as correct according to the given rule.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>What was McDonald's global comparable sales growth rate in 2023 compared to 2022?</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Nearly 11%</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>McDonald's global comparable sales grew by 9% in 2023 compared to 2022.</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>{
 "reason": "The key information in the predicted answer does not match the ground truth. The ground truth states a nearly 11% growth rate, whereas the predicted answer states a 9% growth rate.",
@@ -596,271 +827,964 @@
 }</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="F12" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>By how much did McDonald's systemwide sales increase since 2020 by the end of 2022?</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Nearly $20 billion</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>McDonald's Systemwide sales increased by nearly $30 billion since 2020 by the end of 2022.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>{
-"reason": "The predicted answer is incorrect because it states that McDonald's systemwide sales increased by nearly $30 billion, while the ground truth is that the increase was nearly $20 billion.",
-"answer": False
-}</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>How many active loyalty users did McDonald’s have in its top six markets by the end of 2022?</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Almost 50 million</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>By the end of 2022, McDonald's had almost 50 million active loyalty users in its top six markets.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>{
-"reason": "The predicted answer matches the ground truth information, stating that McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.",
-"answer": True
-}</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>What was Oversea-Chinese Banking Corporation Limited's net profit in 2021 and how did it change in 2022?</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>In 2021, the net profit was S$4,858 million, and it rose to S$5.75 billion in 2022.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Oversea-Chinese Banking Corporation Limited's net profit in 2021 was $4.86 billion, and it increased to $5.75 billion in 2022.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>{
-"reason": "The predicted answer matches the ground truth in terms of the net profit figures for both 2021 and 2022, with a minor rounding difference for the 2021 figure (S$4,858 million vs. $4.86 billion). The change in net profit from 2021 to 2022 is correctly described as an increase.",
-"answer": True
-}</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>How much did Oversea-Chinese Banking Corporation Limited pledge towards achieving its sustainable financing commitments by 2025, and what was the total commitment amount reached by 2022?</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>OCBC pledged to reach S$50 billion in sustainable finance commitments by 2025 and had reached S$44 billion by 2022.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Oversea-Chinese Banking Corporation Limited pledged to achieve $50 billion in sustainable financing commitments by 2025 and reached a total commitment amount of $44 billion by 2022.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>{
-"reason": "The predicted answer matches the ground truth in terms of the amounts pledged and achieved by Oversea-Chinese Banking Corporation Limited for its sustainable financing commitments by 2025 and the total commitment amount reached by 2022, respectively. The currency symbol 'S$' in the ground truth and '$' in the predicted answer both refer to Singapore dollars, which is the contextually correct currency for OCBC, a Singapore-based bank.", 
-"answer": True
-}</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>What was the geographical area featured on OCBC's 2021 annual report cover, and what special project did OCBC launch there as part of its sustainability efforts according to the 2022 report?</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>The 2021 report featured Guilin, located in Guangxi Province, China, and as part of its sustainability efforts, OCBC gifted two mangrove projects in 2022, including 9,000 trees at the OCBC Mangrove Park in Singapore.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>The geographical area featured on OCBC's 2021 annual report cover was Pulau Ubin, Singapore. As part of its sustainability efforts, OCBC launched the OCBC Mangrove Park project there according to the 2022 report.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>{
-"reason": "The predicted answer incorrectly identifies the geographical area featured on OCBC's 2021 annual report cover as Pulau Ubin, Singapore, while the correct location is Guilin, located in Guangxi Province, China. Additionally, the special project mentioned in the prediction, the OCBC Mangrove Park project, is correctly associated with OCBC's sustainability efforts but incorrectly linked to Pulau Ubin instead of being part of the broader initiative that included gifting two mangrove projects in 2022, including 9,000 trees at the OCBC Mangrove Park in Singapore.",
-"answer": False
-}</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>./docs\shell-annual-report-2023.pdf</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>What was Shell plc's income in 2023 compared to 2022?</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Around $20 billion in 2023 compared to around $43 billion in 2022</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Shell plc's income in 2023 was $19,636 million, compared with $42,874 million in 2022.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>{
-"reason": "The predicted answer closely matches the ground truth in terms of the income figures for Shell plc in 2023 and 2022, with slight differences due to rounding. The predicted answer provides specific figures that align with the ground truth's 'around $20 billion in 2023' and 'around $43 billion in 2022'.",
-"answer": True
-}</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>./docs\shell-annual-report-2023.pdf</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>How much did Shell plc return to shareholders in 2023 through share buybacks and dividends?</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>$23 billion</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>In 2023, Shell plc returned approximately $23 billion to shareholders through share buybacks and dividends.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>{
-"reason": "The predicted answer matches the ground truth answer, stating that Shell plc returned approximately $23 billion to shareholders through share buybacks and dividends in 2023.",
-"answer": True
-}</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>By how much did McDonald's systemwide sales increase since 2020 by the end of 2022?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Nearly $20 billion</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>McDonald's Systemwide sales increased by nearly $30 billion from 2020 to the end of 2022.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The key information in the predicted answer does not match the ground truth. The ground truth states an increase of nearly $20 billion, while the predicted answer states an increase of nearly $30 billion.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>How many active loyalty users did McDonald’s have in its top six markets by the end of 2022?</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Almost 50 million</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating that McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>What was the quarterly cash dividend per share announced by McDonald's Board of Directors for March 2024?</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$1.67</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>The quarterly cash dividend per share announced by McDonald's Board of Directors for March 2024 was $1.67.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that the information provided is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>By the end of 2023, how many active loyalty users was McDonald's connecting with across 50 markets?</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>150 million</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>By the end of 2023, McDonald's was connecting with 150 million active loyalty users across 50 markets.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information, stating that McDonald's was connecting with 150 million active loyalty users across 50 markets by the end of 2023.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>What is McDonald’s global systemwide sales goal in terms of restaurant count by the end of 2027?</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>50,000 restaurants</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>McDonald's aims to expand its global restaurant count to 50,000 by the end of 2027.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information regarding McDonald's global systemwide sales goal in terms of restaurant count by the end of 2027, which is 50,000 restaurants.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>What was McDonald's global comparable sales growth in 2023?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>McDonald's global comparable sales grew by 9% in 2023.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, indicating that McDonald's global comparable sales growth in 2023 was indeed 9%.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>How much did McDonald's global guest counts grow in 2022?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>McDonald's global guest counts grew by 5% in 2022.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that the information provided is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>What was McDonald's record global Systemwide sales in 2021?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$112 billion</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>McDonald's record global Systemwide sales in 2021 were $112 billion.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating that McDonald's record global Systemwide sales in 2021 were $112 billion.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>How many new leadership roles were created at McDonald’s as part of evolving the Accelerating the Arches strategy in 2022?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Several, including Executive Vice President, Global Chief Marketing Officer and New Business Ventures, and President, Global Business Services</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Two new leadership roles were created at McDonald's as part of evolving the Accelerating the Arches strategy in 2022.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The ground truth specifies several new leadership roles, including Executive Vice President, Global Chief Marketing Officer and New Business Ventures, and President, Global Business Services, indicating more than two roles. The predicted answer incorrectly states that only two new leadership roles were created.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>What was Oversea-Chinese Banking Corporation Limited's net profit in 2021 and how did it change in 2022?</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>In 2021, the net profit was S$4,858 million, and it rose to S$5.75 billion in 2022.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Oversea-Chinese Banking Corporation Limited's net profit in 2021 was S$4.86 billion, and it increased to S$5.75 billion in 2022.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer is essentially correct. The slight difference in the 2021 net profit figure (S$4,858 million in the ground truth vs. S$4.86 billion in the predicted answer) is due to rounding and does not change the key information. Both answers agree on the 2022 net profit figure of S$5.75 billion and the fact that it increased from 2021.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>How much did Oversea-Chinese Banking Corporation Limited pledge towards achieving its sustainable financing commitments by 2025, and what was the total commitment amount reached by 2022?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>OCBC pledged to reach S$50 billion in sustainable finance commitments by 2025 and had reached S$44 billion by 2022.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Oversea-Chinese Banking Corporation Limited pledged towards achieving $50 billion in sustainable financing commitments by 2025 and reached a total commitment amount of $44 billion by 2022.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information regarding the amount pledged by Oversea-Chinese Banking Corporation Limited for sustainable financing commitments by 2025 and the total commitment amount reached by 2022.", 
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>What was the geographical area featured on OCBC's 2021 annual report cover, and what special project did OCBC launch there as part of its sustainability efforts according to the 2022 report?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>The 2021 report featured Guilin, located in Guangxi Province, China, and as part of its sustainability efforts, OCBC gifted two mangrove projects in 2022, including 9,000 trees at the OCBC Mangrove Park in Singapore.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>The geographical area featured on OCBC's 2021 annual report cover was not specified in the provided information. However, as part of its sustainability efforts according to the 2022 report, OCBC launched two mangrove restoration projects: OCBC Mangrove Park at Pulau Ubin in Singapore and Tebuk Mendeleng in Malaysia.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer is incorrect because it does not accurately identify the geographical area featured on OCBC's 2021 annual report cover, which was Guilin, located in Guangxi Province, China. Additionally, the predicted answer incorrectly states the locations of the mangrove projects launched by OCBC as part of its sustainability efforts; the ground truth specifies the projects were gifted in 2022, including 9,000 trees at the OCBC Mangrove Park in Singapore, without mentioning a project in Malaysia.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>What was Oversea-Chinese Banking Corporation Limited’s dividend per share in 2021 and how much did it increase to in 2022?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>The dividend per share was 53 cents in 2021 and increased to 68 cents in 2022.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Oversea-Chinese Banking Corporation Limited's dividend per share in 2021 was 53 cents, and it increased to 68 cents in 2022.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, providing the correct dividend per share for both 2021 and 2022.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>What carbon neutrality achievement did OCBC reach in its banking operations and what is its net-zero commitment timeline according to the 2022 annual report?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>OCBC achieved carbon neutrality in its banking operations in 2022 and committed to reaching net-zero in its lending and investment businesses by 2050.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>OCBC achieved carbon neutrality for its banking operational emissions and has committed to achieving net-zero carbon by 2050, according to its 2022 annual report.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer correctly states that OCBC achieved carbon neutrality in its banking operations and has committed to achieving net-zero carbon by 2050, which matches the key information in the ground truth answer.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>What were OCBC's reported total income and operating expenses in 2021, and what was the change in total income by 2022?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>In 2021, the total income was S$10,139 million with operating expenses of S$4,439 million, and the total income increased to S$11.7 billion by 2022.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>OCBC's reported total income in 2021 was $10,596 million, and the operating expenses were $4,764 million. By 2022, the total income increased to $11,675 million.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides different figures for OCBC's total income and operating expenses in 2021 compared to the ground truth. Additionally, the total income increase by 2022 is slightly different in numerical representation but essentially conveys the same increase to $11.7 billion, albeit with a more precise figure ($11,675 million).",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>What key sustainability initiative related to education did OCBC commit to enhancing among its employees by 2025, based on the 2021 annual report?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>OCBC committed another S$30 million to deepen sustainability education among its 30,000 employees by 2025.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>OCBC committed to deepening sustainability education among its 30,000 employees by allocating another S$30 million by 2025.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer accurately reflects the key information from the ground truth. It mentions the commitment of OCBC to deepen sustainability education among its employees, the target number of employees (30,000), and the allocated budget (S$30 million) by the year 2025.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>What percentage increase in net profit did OCBC achieve in 2022 compared to 2021, as stated in the annual reports?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>OCBC achieved an approximate 18% increase in net profit in 2022 compared to 2021.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>OCBC achieved an 18% increase in net profit in 2022 compared to 2021.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating the same percentage increase in net profit for OCBC from 2021 to 2022.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>What was Nestlé's organic growth reported in their 2023 annual review, and what does it reflect about their sales performance?</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Nestlé reported a 7.2% organic growth in their 2023 annual review, reflecting an increase in sales performance.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Nestlé reported an organic growth of 7.2% in their 2023 annual review, reflecting a positive sales performance despite various market challenges.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the key information in the ground truth. Both state that Nestlé reported a 7.2% organic growth in their 2023 annual review, and both imply that this growth indicates a positive development in sales performance.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>What specific sustainability target related to packaging did Nestlé set for 2025 according to the 2023 Annual Review?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Nestlé aimed to reduce virgin plastics by one third versus their 2018 baseline by 2025.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Nestlé aims to use 1 million tonnes of plastic waste a year in their global chemical plants by 2025.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer does not match the ground truth. The ground truth states that Nestlé aimed to reduce virgin plastics by one third versus their 2018 baseline by 2025, while the predicted answer talks about using 1 million tonnes of plastic waste a year in their global chemical plants by 2025, which is a different target.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>./docs\shell-annual-report-2023.pdf</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>What was Shell plc's income in 2023 compared to 2022?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Around $20 billion in 2023 compared to around $43 billion in 2022</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Shell plc's income in 2023 was $28,250 million, compared to $39,870 million in 2022.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides specific income figures for Shell plc in 2023 and 2022, which are different from the ground truth values. The ground truth states the income was around $20 billion in 2023 and around $43 billion in 2022, while the predicted answer states $28,250 million ($28.25 billion) for 2023 and $39,870 million ($39.87 billion) for 2022. Therefore, the predicted answer's figures do not match the ground truth.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>How much did Shell plc return to shareholders in 2023 through share buybacks and dividends?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$23 billion</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Shell plc returned $23 billion to shareholders in 2023 through share buybacks and dividends.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, indicating that Shell plc returned $23 billion to shareholders in 2023 through share buybacks and dividends.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>How much did Shell plc plan to invest in oil and gas between 2023 and 2025?</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Around $40 billion</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Shell plc planned to invest around $40 billion in oil and gas between 2023 and 2025.</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>{
-"reason": "The predicted answer matches the ground truth answer exactly, stating the planned investment amount by Shell plc in oil and gas between 2023 and 2025.",
-"answer": True
-}</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, indicating that Shell plc planned to invest around $40 billion in oil and gas between 2023 and 2025.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>What was Shell plc's cash flow from operations in 2023 compared to 2022?</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Around $54 billion in 2023 compared to more than $68 billion in 2022</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Shell plc's cash flow from operations in 2023 was $54.2 billion, compared to $68.4 billion in 2022.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer closely matches the ground truth information, providing specific figures ($54.2 billion for 2023 and $68.4 billion for 2022) that align with the ground truth description (around $54 billion in 2023 compared to more than $68 billion in 2022).",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>What was the percentage reduction in Shell plc's total combined Scope 1 and 2 absolute greenhouse gas emissions from their operations by the end of 2023 compared to 2016 levels?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>By the end of 2023, Shell plc's total combined Scope 1 and 2 absolute greenhouse gas emissions from their operations were reduced by 31% compared to 2016 levels.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating a 31% reduction in Shell plc's total combined Scope 1 and 2 absolute greenhouse gas emissions from their operations by the end of 2023 compared to 2016 levels.", 
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>By the end of 2023, what percentage of their 2030 target to halve emissions in their own operations had Shell plc achieved compared with 2016 levels?</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>More than 60%</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>By the end of 2023, Shell plc had achieved more than 60% of their target to halve emissions in their own operations by 2030, compared with 2016 levels.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information provided, stating that Shell plc had achieved more than 60% of their target to halve emissions in their own operations by 2030, compared with 2016 levels.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>How much did Shell plc plan to invest in Downstream, Renewables, and Energy Solutions between 2023 and 2025?</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Around $35 billion</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Shell plc planned to invest around $35 billion in Downstream, Renewables, and Energy Solutions between 2023 and 2025.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, indicating that Shell plc planned to invest around $35 billion in Downstream, Renewables, and Energy Solutions between 2023 and 2025.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>What was Shell plc's Adjusted Earnings in 2023?</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Around $28 billion</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Shell plc's Adjusted Earnings in 2023 were $28.2 billion.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer is essentially the same as the ground truth, providing a specific figure ($28.2 billion) that aligns closely with the ground truth description of 'around $28 billion'.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>What was Shell plc's workforce size as of December 31, 2023?</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Around 103,000 people</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>As of December 31, 2023, Shell plc employed 103,000 people.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information regarding Shell plc's workforce size as of December 31, 2023, which is around 103,000 people.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>What was the amount of cash capital expenditure by Shell plc in 2023?</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$24 billion</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>The cash capital expenditure by Shell plc in 2023 was $24,392 million.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides a more precise figure ($24,392 million) which is essentially equivalent to the ground truth answer of $24 billion, considering that $24,392 million can be rounded to $24 billion. Therefore, the key information in the predicted answer matches the ground truth.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
         <v>1</v>
       </c>
     </row>
